--- a/data/trans_dic/P1413-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1413-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1861367947184265</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4331170233924733</v>
+        <v>0.4331170233924731</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2325440893929926</v>
+        <v>0.2310534918465869</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1342833477461338</v>
+        <v>0.134024046848813</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1112219642056418</v>
+        <v>0.1096650309876182</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2827939327148518</v>
+        <v>0.2797128474430651</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2692556349467616</v>
+        <v>0.2700489859652721</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2449903905949413</v>
+        <v>0.2463905760290181</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1970801961155382</v>
+        <v>0.1943811249257608</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4833619610664833</v>
+        <v>0.4893810138093404</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2590411533213103</v>
+        <v>0.2613180935100423</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2046299417482518</v>
+        <v>0.2067664985280991</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1654348827872324</v>
+        <v>0.1665410420858947</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4105539441758042</v>
+        <v>0.4077038645923649</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2828640460970688</v>
+        <v>0.2855209056075071</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1808017507156637</v>
+        <v>0.1805333560152509</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1589833615654893</v>
+        <v>0.1562651793025949</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3550250736562216</v>
+        <v>0.3516377842979067</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3201015133508613</v>
+        <v>0.3188473380257185</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2940327873266866</v>
+        <v>0.29611608016723</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2541418839046886</v>
+        <v>0.2574522626638619</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5402676058951021</v>
+        <v>0.5412354886912163</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2965275341728201</v>
+        <v>0.297356342635575</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2401177352166664</v>
+        <v>0.2423581048956636</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.205565766580004</v>
+        <v>0.2061559764624617</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4569855205729693</v>
+        <v>0.4536870194120799</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.1140005608082108</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2568568031870806</v>
+        <v>0.2568568031870807</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1271814176799984</v>
@@ -833,7 +833,7 @@
         <v>0.09094034229786435</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.212321483030527</v>
+        <v>0.2123214830305269</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1057248829908112</v>
+        <v>0.1051094112289325</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05613640538009637</v>
+        <v>0.05570500839226138</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05744400758882341</v>
+        <v>0.05793578830519665</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1535544943463784</v>
+        <v>0.1539070030315526</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1179503882008299</v>
+        <v>0.1200962737017169</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1169163153744042</v>
+        <v>0.1169309740574165</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1004075861517495</v>
+        <v>0.09931615903068211</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2409826587138441</v>
+        <v>0.2404403288652675</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1167631752159014</v>
+        <v>0.1167392641211655</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08907003959302191</v>
+        <v>0.08777023326417692</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0827425762369806</v>
+        <v>0.08106530000083302</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1997138985540002</v>
+        <v>0.2000699930084665</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1365351159474592</v>
+        <v>0.1367864466799748</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08108187347770905</v>
+        <v>0.07930458646395568</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08118805041621743</v>
+        <v>0.08021441891592344</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.187389827646472</v>
+        <v>0.1851282641030824</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1525998257695533</v>
+        <v>0.1527884875190308</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1484718316813868</v>
+        <v>0.1511115037284604</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1308912254356468</v>
+        <v>0.1298839066600519</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2750525555382582</v>
+        <v>0.2742994490517134</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1389835515629134</v>
+        <v>0.1385706104099175</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.108365085560359</v>
+        <v>0.1094256176946159</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1014136881977273</v>
+        <v>0.1001498557862285</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2242659478853815</v>
+        <v>0.2247712702070924</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08482568582390436</v>
+        <v>0.0873672988628981</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02932168688399269</v>
+        <v>0.02834095063956541</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0421074068822764</v>
+        <v>0.0447855876307771</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1037360129396635</v>
+        <v>0.1071169032205724</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07601369727527793</v>
+        <v>0.07745171265943684</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08278694337977061</v>
+        <v>0.07996790917527126</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05219022609230931</v>
+        <v>0.05073998520793666</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1906480740090075</v>
+        <v>0.1924732988437316</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08946439761961268</v>
+        <v>0.08952706961721506</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06070760622203938</v>
+        <v>0.06287011618403202</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05299970813712741</v>
+        <v>0.05226013238058343</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1563588044351751</v>
+        <v>0.1558644684981079</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1389848541124994</v>
+        <v>0.1399020527811434</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07204782872117872</v>
+        <v>0.07072390820298055</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08734637604806801</v>
+        <v>0.09155490349784078</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1559335388227756</v>
+        <v>0.1548080417967898</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1350022630591524</v>
+        <v>0.1317763967054652</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1462050210040943</v>
+        <v>0.1500183475798351</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09657497715016053</v>
+        <v>0.09575949479440181</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2443245769422245</v>
+        <v>0.245707278273085</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1269314677568793</v>
+        <v>0.1292888026895338</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09896716819307963</v>
+        <v>0.1018567905292682</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08587911947822154</v>
+        <v>0.08387101998852033</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1947591406420733</v>
+        <v>0.1913145336610079</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1392093227833814</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3060174647908123</v>
+        <v>0.3060174647908124</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1773607483701837</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1484779204118798</v>
+        <v>0.1504657268873401</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08046014551112408</v>
+        <v>0.08002228233722611</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07306453796894226</v>
+        <v>0.0735575753220586</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1705729705364014</v>
+        <v>0.1710634507347604</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1784936176616126</v>
+        <v>0.1788327100148702</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1694416295981986</v>
+        <v>0.1682913201889989</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1280312977304283</v>
+        <v>0.1276173821933716</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2922399859537096</v>
+        <v>0.2943573311137051</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.168033460816211</v>
+        <v>0.1673790186796687</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1279415043518907</v>
+        <v>0.1286766355927258</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1035455254445942</v>
+        <v>0.1039999188632706</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.237971338086466</v>
+        <v>0.2386928049023783</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1752205520105942</v>
+        <v>0.1762209470458292</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09986577553951972</v>
+        <v>0.1001257153685191</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09202611011557287</v>
+        <v>0.09235403015499755</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1981744564263097</v>
+        <v>0.1986531973081746</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2058547955038011</v>
+        <v>0.2062084375556609</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1964489024773666</v>
+        <v>0.1955285488015359</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1511785687149795</v>
+        <v>0.1528062343750435</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.317331111726236</v>
+        <v>0.3190331658280807</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1873441785768108</v>
+        <v>0.1856962932207405</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.145778820048468</v>
+        <v>0.1461234626313431</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.119198109594627</v>
+        <v>0.1200955567146982</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2571782976644261</v>
+        <v>0.2574097986455834</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>239921</v>
+        <v>238383</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>130878</v>
+        <v>130626</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>83900</v>
+        <v>82725</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>163325</v>
+        <v>161546</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>354102</v>
+        <v>355145</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>327747</v>
+        <v>329621</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>196028</v>
+        <v>193343</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>396992</v>
+        <v>401936</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>607927</v>
+        <v>613270</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>473194</v>
+        <v>478135</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>289347</v>
+        <v>291281</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>574306</v>
+        <v>570319</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>291837</v>
+        <v>294578</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>176217</v>
+        <v>175956</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>119929</v>
+        <v>117878</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>205042</v>
+        <v>203086</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>420970</v>
+        <v>419320</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>393356</v>
+        <v>396143</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>252785</v>
+        <v>256077</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>443730</v>
+        <v>444525</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>695901</v>
+        <v>697846</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>555258</v>
+        <v>560439</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>359536</v>
+        <v>360568</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>639257</v>
+        <v>634643</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>179036</v>
+        <v>177994</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>110249</v>
+        <v>109402</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>119276</v>
+        <v>120297</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>341870</v>
+        <v>342655</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>187267</v>
+        <v>190674</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>205140</v>
+        <v>205166</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>199640</v>
+        <v>197470</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>522779</v>
+        <v>521603</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>383110</v>
+        <v>383032</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>331211</v>
+        <v>326378</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>336323</v>
+        <v>329505</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>877890</v>
+        <v>879455</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>231210</v>
+        <v>231636</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>159241</v>
+        <v>155751</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>168578</v>
+        <v>166556</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>417200</v>
+        <v>412165</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>242279</v>
+        <v>242578</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>260507</v>
+        <v>265139</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>260251</v>
+        <v>258248</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>596689</v>
+        <v>595056</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>456017</v>
+        <v>454662</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>402961</v>
+        <v>406905</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>412215</v>
+        <v>407078</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>985815</v>
+        <v>988036</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>46774</v>
+        <v>48175</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>14109</v>
+        <v>13637</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>23028</v>
+        <v>24493</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>73694</v>
+        <v>76096</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>36214</v>
+        <v>36899</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>37969</v>
+        <v>36676</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>28660</v>
+        <v>27863</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>139973</v>
+        <v>141313</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>91953</v>
+        <v>92018</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>57054</v>
+        <v>59086</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>58089</v>
+        <v>57279</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>225876</v>
+        <v>225161</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>76637</v>
+        <v>77143</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>34668</v>
+        <v>34031</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>47769</v>
+        <v>50070</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>110776</v>
+        <v>109976</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>64317</v>
+        <v>62780</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>67054</v>
+        <v>68803</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>53033</v>
+        <v>52585</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>179382</v>
+        <v>180397</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>130463</v>
+        <v>132886</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>93011</v>
+        <v>95726</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>94126</v>
+        <v>91925</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>281349</v>
+        <v>276373</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>486494</v>
+        <v>493007</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>275156</v>
+        <v>273659</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>246784</v>
+        <v>248449</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>599448</v>
+        <v>601172</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>603165</v>
+        <v>604311</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>601691</v>
+        <v>597606</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>452219</v>
+        <v>450757</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1088557</v>
+        <v>1096444</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1118387</v>
+        <v>1114031</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>891855</v>
+        <v>896979</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>715470</v>
+        <v>718610</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1722721</v>
+        <v>1727944</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>574118</v>
+        <v>577396</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>341519</v>
+        <v>342408</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>310829</v>
+        <v>311937</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>696448</v>
+        <v>698131</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>695624</v>
+        <v>696819</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>697594</v>
+        <v>694326</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>533978</v>
+        <v>539727</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1182019</v>
+        <v>1188359</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1246914</v>
+        <v>1235946</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1016195</v>
+        <v>1018598</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>823625</v>
+        <v>829826</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1861764</v>
+        <v>1863439</v>
       </c>
     </row>
     <row r="20">
